--- a/emptyFYP/assets/images/Samplefile/SupervisiorSample.xlsx
+++ b/emptyFYP/assets/images/Samplefile/SupervisiorSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ALLForFYP\emptyFYP\assets\images\Samplefile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/socally/AllFYP/FYPDeploy/emptyFYP/assets/images/Samplefile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E5552B-56EF-4659-BD26-B564F3A19E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8840941-611E-4449-9E58-F9E2BD137AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="9816" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="1540" windowWidth="10000" windowHeight="10580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>supervisiorname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,18 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tid00005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tpw00005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tid00006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dr Eva</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,40 +66,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tid00007</t>
-  </si>
-  <si>
-    <t>tid00008</t>
-  </si>
-  <si>
-    <t>tid00009</t>
-  </si>
-  <si>
-    <t>tid00010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tpw00006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tpw00007</t>
-  </si>
-  <si>
-    <t>tpw00008</t>
-  </si>
-  <si>
-    <t>tpw00009</t>
-  </si>
-  <si>
-    <t>tpw00010</t>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>tid00030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpw00030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpw00031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid00031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpw00032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid00032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid00033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpw00034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid00034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpw00033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid00035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpw00035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervisorname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +139,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,8 +168,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -171,9 +189,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +229,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -317,7 +335,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,95 +485,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
